--- a/full/excel/hak akses.xlsx
+++ b/full/excel/hak akses.xlsx
@@ -180,6 +180,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -188,21 +203,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +501,7 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -510,324 +510,324 @@
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="47.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1">
+      <c r="B6" s="8"/>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="3"/>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" customHeight="1">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18" customHeight="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" customHeight="1">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1">
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="7" t="s">
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="18" customHeight="1">
+      <c r="B14" s="9"/>
+      <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="7" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
